--- a/po_analysis_by_asin/B09JBLHBWJ_po_data.xlsx
+++ b/po_analysis_by_asin/B09JBLHBWJ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,609 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>306</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>141</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>114</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>75</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>441</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>63</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45348</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>21</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45355</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>180</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45362</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45376</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45383</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45390</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>280</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45397</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>146</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45404</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45411</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45418</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>182</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45425</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45432</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>82</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45474</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>306</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45481</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>582</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45488</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45509</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>78</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45516</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>372</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45523</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1122</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45530</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>600</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45607</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45621</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B30" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B77" t="n">
         <v>104</v>
       </c>
     </row>
@@ -693,7 +1069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,65 +1091,161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>744</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>531</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>360</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>590</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>486</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>890</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>2172</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45597</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B21" t="n">
         <v>148</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09JBLHBWJ_po_data.xlsx
+++ b/po_analysis_by_asin/B09JBLHBWJ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1086,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1247,6 +1248,1223 @@
       </c>
       <c r="B21" t="n">
         <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>258</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-141.2733100188379</v>
+      </c>
+      <c r="D2" t="n">
+        <v>643.7596402255991</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>257</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-129.3992409671104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>653.1903511057902</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>256</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-154.0959163436046</v>
+      </c>
+      <c r="D4" t="n">
+        <v>649.4009982993331</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>256</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-128.1771805814493</v>
+      </c>
+      <c r="D5" t="n">
+        <v>645.3413641750457</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>255</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-144.2319857881742</v>
+      </c>
+      <c r="D6" t="n">
+        <v>657.3159060994171</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>254</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-128.4320299616246</v>
+      </c>
+      <c r="D7" t="n">
+        <v>633.8516243216941</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>254</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-140.824378755799</v>
+      </c>
+      <c r="D8" t="n">
+        <v>621.4756309624922</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>253</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-121.1413891686532</v>
+      </c>
+      <c r="D9" t="n">
+        <v>612.0655411342221</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>252</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-146.754873680528</v>
+      </c>
+      <c r="D10" t="n">
+        <v>654.2266506955992</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>251</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-116.6835667330928</v>
+      </c>
+      <c r="D11" t="n">
+        <v>623.3226713588824</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>251</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-152.179775021609</v>
+      </c>
+      <c r="D12" t="n">
+        <v>630.0085668563715</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>250</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-139.1723326625701</v>
+      </c>
+      <c r="D13" t="n">
+        <v>617.1738932402744</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>249</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-133.6456741177423</v>
+      </c>
+      <c r="D14" t="n">
+        <v>604.1736773531439</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>248</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-116.4696281368922</v>
+      </c>
+      <c r="D15" t="n">
+        <v>672.8184947462972</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>248</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-111.844759614971</v>
+      </c>
+      <c r="D16" t="n">
+        <v>616.7812209568264</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>247</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-124.3620912040832</v>
+      </c>
+      <c r="D17" t="n">
+        <v>624.5720646877467</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>246</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-133.0015210765241</v>
+      </c>
+      <c r="D18" t="n">
+        <v>625.0216184697824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>246</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-156.2000555524444</v>
+      </c>
+      <c r="D19" t="n">
+        <v>634.1282004373381</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>245</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-133.0874775108635</v>
+      </c>
+      <c r="D20" t="n">
+        <v>668.1732803502383</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>244</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-134.227990781636</v>
+      </c>
+      <c r="D21" t="n">
+        <v>652.8477474022251</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>243</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-144.2026697526596</v>
+      </c>
+      <c r="D22" t="n">
+        <v>624.9058411934104</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>243</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-139.3497673693669</v>
+      </c>
+      <c r="D23" t="n">
+        <v>595.2891585122692</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>242</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-127.7701672938973</v>
+      </c>
+      <c r="D24" t="n">
+        <v>663.6873662946396</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>241</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-152.8794494678158</v>
+      </c>
+      <c r="D25" t="n">
+        <v>663.5368010774176</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>241</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-143.6415588418693</v>
+      </c>
+      <c r="D26" t="n">
+        <v>614.0367729853174</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>240</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-151.3926897270968</v>
+      </c>
+      <c r="D27" t="n">
+        <v>622.0792011255543</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>239</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-171.9742258984113</v>
+      </c>
+      <c r="D28" t="n">
+        <v>612.057420501157</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>238</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-149.0507442087811</v>
+      </c>
+      <c r="D29" t="n">
+        <v>630.606445275443</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>238</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-159.2944666043635</v>
+      </c>
+      <c r="D30" t="n">
+        <v>602.1629027503682</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>237</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-167.8833381959775</v>
+      </c>
+      <c r="D31" t="n">
+        <v>604.8131313288343</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>236</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-151.3866990272836</v>
+      </c>
+      <c r="D32" t="n">
+        <v>615.9592020960455</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>236</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-139.2561419987229</v>
+      </c>
+      <c r="D33" t="n">
+        <v>635.5931101518844</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>235</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-175.7079736733303</v>
+      </c>
+      <c r="D34" t="n">
+        <v>599.5117433094774</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>234</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-174.7617602469248</v>
+      </c>
+      <c r="D35" t="n">
+        <v>611.977394978201</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>233</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-150.9215337620121</v>
+      </c>
+      <c r="D36" t="n">
+        <v>624.8880251934894</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>233</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-187.8278358079361</v>
+      </c>
+      <c r="D37" t="n">
+        <v>598.150341999557</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>232</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-172.8483943184265</v>
+      </c>
+      <c r="D38" t="n">
+        <v>591.2627910850578</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>231</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-137.6092477082592</v>
+      </c>
+      <c r="D39" t="n">
+        <v>604.3539759144896</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>230</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-172.6960264598256</v>
+      </c>
+      <c r="D40" t="n">
+        <v>603.1531585525756</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>230</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-142.8010511987051</v>
+      </c>
+      <c r="D41" t="n">
+        <v>584.2697791060189</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>229</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-179.5665528979866</v>
+      </c>
+      <c r="D42" t="n">
+        <v>592.0021932210623</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>226</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-173.6563258713912</v>
+      </c>
+      <c r="D43" t="n">
+        <v>603.2723391832176</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>225</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-144.4374694214458</v>
+      </c>
+      <c r="D44" t="n">
+        <v>613.9131123142288</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>225</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-153.6629634321945</v>
+      </c>
+      <c r="D45" t="n">
+        <v>592.1583897444557</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>224</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-182.0023109820127</v>
+      </c>
+      <c r="D46" t="n">
+        <v>626.4629243331676</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>223</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-155.3738821796161</v>
+      </c>
+      <c r="D47" t="n">
+        <v>614.9630101034097</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>223</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-182.4702311239178</v>
+      </c>
+      <c r="D48" t="n">
+        <v>597.3416447168639</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>220</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-193.1688545508984</v>
+      </c>
+      <c r="D49" t="n">
+        <v>628.5686477503874</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>220</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-154.6234061949768</v>
+      </c>
+      <c r="D50" t="n">
+        <v>631.5209776892103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>219</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-173.9585248740285</v>
+      </c>
+      <c r="D51" t="n">
+        <v>614.3328307011078</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>218</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-167.449276303621</v>
+      </c>
+      <c r="D52" t="n">
+        <v>614.6148685719938</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>218</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-186.4384129539426</v>
+      </c>
+      <c r="D53" t="n">
+        <v>623.6376185846042</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>217</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-177.5932693180253</v>
+      </c>
+      <c r="D54" t="n">
+        <v>617.5910044252859</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>216</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-160.1942411969284</v>
+      </c>
+      <c r="D55" t="n">
+        <v>644.5416318673821</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>215</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-171.2661758836055</v>
+      </c>
+      <c r="D56" t="n">
+        <v>598.5694310263375</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>215</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-171.6571739055119</v>
+      </c>
+      <c r="D57" t="n">
+        <v>581.3142891246982</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>214</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-159.6281211215833</v>
+      </c>
+      <c r="D58" t="n">
+        <v>593.0818336918621</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>213</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-186.924363732055</v>
+      </c>
+      <c r="D59" t="n">
+        <v>617.607167466743</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>212</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-145.9463412742597</v>
+      </c>
+      <c r="D60" t="n">
+        <v>604.4237628151051</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>211</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-192.050153959798</v>
+      </c>
+      <c r="D61" t="n">
+        <v>596.7648319824377</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>210</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-175.755487410955</v>
+      </c>
+      <c r="D62" t="n">
+        <v>622.3241580006714</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>210</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-181.2555588034299</v>
+      </c>
+      <c r="D63" t="n">
+        <v>571.0556521914307</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>209</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-177.4780128048741</v>
+      </c>
+      <c r="D64" t="n">
+        <v>593.7745006049596</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>208</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-186.2079025384102</v>
+      </c>
+      <c r="D65" t="n">
+        <v>590.4711025905068</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>207</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-186.2160447457654</v>
+      </c>
+      <c r="D66" t="n">
+        <v>590.066700602807</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>207</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-152.8105787958874</v>
+      </c>
+      <c r="D67" t="n">
+        <v>595.3574646095049</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>206</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-202.705848166788</v>
+      </c>
+      <c r="D68" t="n">
+        <v>590.8273341325585</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>202</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-188.5014055084932</v>
+      </c>
+      <c r="D69" t="n">
+        <v>594.3000319769188</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>201</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-187.0170144268575</v>
+      </c>
+      <c r="D70" t="n">
+        <v>598.1041937417082</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>200</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-174.2887962202338</v>
+      </c>
+      <c r="D71" t="n">
+        <v>607.6909979068258</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>198</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-189.3965870098094</v>
+      </c>
+      <c r="D72" t="n">
+        <v>603.8341320280974</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>197</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-207.6744510999705</v>
+      </c>
+      <c r="D73" t="n">
+        <v>571.5565944466177</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>197</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-201.2090712451327</v>
+      </c>
+      <c r="D74" t="n">
+        <v>576.5408978972998</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>196</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-201.1222934407734</v>
+      </c>
+      <c r="D75" t="n">
+        <v>607.6474114534784</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>188</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-173.5239205090033</v>
+      </c>
+      <c r="D76" t="n">
+        <v>581.1756905119252</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>187</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-203.8242091919407</v>
+      </c>
+      <c r="D77" t="n">
+        <v>590.7559328594231</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B78" t="n">
+        <v>186</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-184.5657105553014</v>
+      </c>
+      <c r="D78" t="n">
+        <v>586.551371634633</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B79" t="n">
+        <v>185</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-205.553530024584</v>
+      </c>
+      <c r="D79" t="n">
+        <v>560.3320177792416</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B80" t="n">
+        <v>184</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-200.10406194288</v>
+      </c>
+      <c r="D80" t="n">
+        <v>563.225779095568</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B81" t="n">
+        <v>184</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-235.371224444548</v>
+      </c>
+      <c r="D81" t="n">
+        <v>569.9637368916751</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B82" t="n">
+        <v>183</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-201.5278723305055</v>
+      </c>
+      <c r="D82" t="n">
+        <v>593.9709459382697</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B83" t="n">
+        <v>182</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-205.9184762569065</v>
+      </c>
+      <c r="D83" t="n">
+        <v>575.8989138492578</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B84" t="n">
+        <v>182</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-186.5875769077257</v>
+      </c>
+      <c r="D84" t="n">
+        <v>565.8697161797564</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B85" t="n">
+        <v>181</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-223.891425813398</v>
+      </c>
+      <c r="D85" t="n">
+        <v>574.4197220214938</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09JBLHBWJ_po_data.xlsx
+++ b/po_analysis_by_asin/B09JBLHBWJ_po_data.xlsx
@@ -1261,7 +1261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,16 +1280,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1298,12 +1288,6 @@
       <c r="B2" t="n">
         <v>258</v>
       </c>
-      <c r="C2" t="n">
-        <v>-141.2733100188379</v>
-      </c>
-      <c r="D2" t="n">
-        <v>643.7596402255991</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1312,12 +1296,6 @@
       <c r="B3" t="n">
         <v>257</v>
       </c>
-      <c r="C3" t="n">
-        <v>-129.3992409671104</v>
-      </c>
-      <c r="D3" t="n">
-        <v>653.1903511057902</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1326,12 +1304,6 @@
       <c r="B4" t="n">
         <v>256</v>
       </c>
-      <c r="C4" t="n">
-        <v>-154.0959163436046</v>
-      </c>
-      <c r="D4" t="n">
-        <v>649.4009982993331</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1340,12 +1312,6 @@
       <c r="B5" t="n">
         <v>256</v>
       </c>
-      <c r="C5" t="n">
-        <v>-128.1771805814493</v>
-      </c>
-      <c r="D5" t="n">
-        <v>645.3413641750457</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1354,12 +1320,6 @@
       <c r="B6" t="n">
         <v>255</v>
       </c>
-      <c r="C6" t="n">
-        <v>-144.2319857881742</v>
-      </c>
-      <c r="D6" t="n">
-        <v>657.3159060994171</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1368,12 +1328,6 @@
       <c r="B7" t="n">
         <v>254</v>
       </c>
-      <c r="C7" t="n">
-        <v>-128.4320299616246</v>
-      </c>
-      <c r="D7" t="n">
-        <v>633.8516243216941</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1382,12 +1336,6 @@
       <c r="B8" t="n">
         <v>254</v>
       </c>
-      <c r="C8" t="n">
-        <v>-140.824378755799</v>
-      </c>
-      <c r="D8" t="n">
-        <v>621.4756309624922</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1396,12 +1344,6 @@
       <c r="B9" t="n">
         <v>253</v>
       </c>
-      <c r="C9" t="n">
-        <v>-121.1413891686532</v>
-      </c>
-      <c r="D9" t="n">
-        <v>612.0655411342221</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1410,12 +1352,6 @@
       <c r="B10" t="n">
         <v>252</v>
       </c>
-      <c r="C10" t="n">
-        <v>-146.754873680528</v>
-      </c>
-      <c r="D10" t="n">
-        <v>654.2266506955992</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1424,12 +1360,6 @@
       <c r="B11" t="n">
         <v>251</v>
       </c>
-      <c r="C11" t="n">
-        <v>-116.6835667330928</v>
-      </c>
-      <c r="D11" t="n">
-        <v>623.3226713588824</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1438,12 +1368,6 @@
       <c r="B12" t="n">
         <v>251</v>
       </c>
-      <c r="C12" t="n">
-        <v>-152.179775021609</v>
-      </c>
-      <c r="D12" t="n">
-        <v>630.0085668563715</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1452,12 +1376,6 @@
       <c r="B13" t="n">
         <v>250</v>
       </c>
-      <c r="C13" t="n">
-        <v>-139.1723326625701</v>
-      </c>
-      <c r="D13" t="n">
-        <v>617.1738932402744</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1466,12 +1384,6 @@
       <c r="B14" t="n">
         <v>249</v>
       </c>
-      <c r="C14" t="n">
-        <v>-133.6456741177423</v>
-      </c>
-      <c r="D14" t="n">
-        <v>604.1736773531439</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1480,12 +1392,6 @@
       <c r="B15" t="n">
         <v>248</v>
       </c>
-      <c r="C15" t="n">
-        <v>-116.4696281368922</v>
-      </c>
-      <c r="D15" t="n">
-        <v>672.8184947462972</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1494,12 +1400,6 @@
       <c r="B16" t="n">
         <v>248</v>
       </c>
-      <c r="C16" t="n">
-        <v>-111.844759614971</v>
-      </c>
-      <c r="D16" t="n">
-        <v>616.7812209568264</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1508,12 +1408,6 @@
       <c r="B17" t="n">
         <v>247</v>
       </c>
-      <c r="C17" t="n">
-        <v>-124.3620912040832</v>
-      </c>
-      <c r="D17" t="n">
-        <v>624.5720646877467</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1522,12 +1416,6 @@
       <c r="B18" t="n">
         <v>246</v>
       </c>
-      <c r="C18" t="n">
-        <v>-133.0015210765241</v>
-      </c>
-      <c r="D18" t="n">
-        <v>625.0216184697824</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1536,12 +1424,6 @@
       <c r="B19" t="n">
         <v>246</v>
       </c>
-      <c r="C19" t="n">
-        <v>-156.2000555524444</v>
-      </c>
-      <c r="D19" t="n">
-        <v>634.1282004373381</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1550,12 +1432,6 @@
       <c r="B20" t="n">
         <v>245</v>
       </c>
-      <c r="C20" t="n">
-        <v>-133.0874775108635</v>
-      </c>
-      <c r="D20" t="n">
-        <v>668.1732803502383</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1564,12 +1440,6 @@
       <c r="B21" t="n">
         <v>244</v>
       </c>
-      <c r="C21" t="n">
-        <v>-134.227990781636</v>
-      </c>
-      <c r="D21" t="n">
-        <v>652.8477474022251</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1578,12 +1448,6 @@
       <c r="B22" t="n">
         <v>243</v>
       </c>
-      <c r="C22" t="n">
-        <v>-144.2026697526596</v>
-      </c>
-      <c r="D22" t="n">
-        <v>624.9058411934104</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1592,12 +1456,6 @@
       <c r="B23" t="n">
         <v>243</v>
       </c>
-      <c r="C23" t="n">
-        <v>-139.3497673693669</v>
-      </c>
-      <c r="D23" t="n">
-        <v>595.2891585122692</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1606,12 +1464,6 @@
       <c r="B24" t="n">
         <v>242</v>
       </c>
-      <c r="C24" t="n">
-        <v>-127.7701672938973</v>
-      </c>
-      <c r="D24" t="n">
-        <v>663.6873662946396</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1620,12 +1472,6 @@
       <c r="B25" t="n">
         <v>241</v>
       </c>
-      <c r="C25" t="n">
-        <v>-152.8794494678158</v>
-      </c>
-      <c r="D25" t="n">
-        <v>663.5368010774176</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1634,12 +1480,6 @@
       <c r="B26" t="n">
         <v>241</v>
       </c>
-      <c r="C26" t="n">
-        <v>-143.6415588418693</v>
-      </c>
-      <c r="D26" t="n">
-        <v>614.0367729853174</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1648,12 +1488,6 @@
       <c r="B27" t="n">
         <v>240</v>
       </c>
-      <c r="C27" t="n">
-        <v>-151.3926897270968</v>
-      </c>
-      <c r="D27" t="n">
-        <v>622.0792011255543</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1662,12 +1496,6 @@
       <c r="B28" t="n">
         <v>239</v>
       </c>
-      <c r="C28" t="n">
-        <v>-171.9742258984113</v>
-      </c>
-      <c r="D28" t="n">
-        <v>612.057420501157</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1676,12 +1504,6 @@
       <c r="B29" t="n">
         <v>238</v>
       </c>
-      <c r="C29" t="n">
-        <v>-149.0507442087811</v>
-      </c>
-      <c r="D29" t="n">
-        <v>630.606445275443</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1690,12 +1512,6 @@
       <c r="B30" t="n">
         <v>238</v>
       </c>
-      <c r="C30" t="n">
-        <v>-159.2944666043635</v>
-      </c>
-      <c r="D30" t="n">
-        <v>602.1629027503682</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1704,12 +1520,6 @@
       <c r="B31" t="n">
         <v>237</v>
       </c>
-      <c r="C31" t="n">
-        <v>-167.8833381959775</v>
-      </c>
-      <c r="D31" t="n">
-        <v>604.8131313288343</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1718,12 +1528,6 @@
       <c r="B32" t="n">
         <v>236</v>
       </c>
-      <c r="C32" t="n">
-        <v>-151.3866990272836</v>
-      </c>
-      <c r="D32" t="n">
-        <v>615.9592020960455</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1732,12 +1536,6 @@
       <c r="B33" t="n">
         <v>236</v>
       </c>
-      <c r="C33" t="n">
-        <v>-139.2561419987229</v>
-      </c>
-      <c r="D33" t="n">
-        <v>635.5931101518844</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1746,12 +1544,6 @@
       <c r="B34" t="n">
         <v>235</v>
       </c>
-      <c r="C34" t="n">
-        <v>-175.7079736733303</v>
-      </c>
-      <c r="D34" t="n">
-        <v>599.5117433094774</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1760,12 +1552,6 @@
       <c r="B35" t="n">
         <v>234</v>
       </c>
-      <c r="C35" t="n">
-        <v>-174.7617602469248</v>
-      </c>
-      <c r="D35" t="n">
-        <v>611.977394978201</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1774,12 +1560,6 @@
       <c r="B36" t="n">
         <v>233</v>
       </c>
-      <c r="C36" t="n">
-        <v>-150.9215337620121</v>
-      </c>
-      <c r="D36" t="n">
-        <v>624.8880251934894</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1788,12 +1568,6 @@
       <c r="B37" t="n">
         <v>233</v>
       </c>
-      <c r="C37" t="n">
-        <v>-187.8278358079361</v>
-      </c>
-      <c r="D37" t="n">
-        <v>598.150341999557</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1802,12 +1576,6 @@
       <c r="B38" t="n">
         <v>232</v>
       </c>
-      <c r="C38" t="n">
-        <v>-172.8483943184265</v>
-      </c>
-      <c r="D38" t="n">
-        <v>591.2627910850578</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1816,12 +1584,6 @@
       <c r="B39" t="n">
         <v>231</v>
       </c>
-      <c r="C39" t="n">
-        <v>-137.6092477082592</v>
-      </c>
-      <c r="D39" t="n">
-        <v>604.3539759144896</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1830,12 +1592,6 @@
       <c r="B40" t="n">
         <v>230</v>
       </c>
-      <c r="C40" t="n">
-        <v>-172.6960264598256</v>
-      </c>
-      <c r="D40" t="n">
-        <v>603.1531585525756</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1844,12 +1600,6 @@
       <c r="B41" t="n">
         <v>230</v>
       </c>
-      <c r="C41" t="n">
-        <v>-142.8010511987051</v>
-      </c>
-      <c r="D41" t="n">
-        <v>584.2697791060189</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1858,12 +1608,6 @@
       <c r="B42" t="n">
         <v>229</v>
       </c>
-      <c r="C42" t="n">
-        <v>-179.5665528979866</v>
-      </c>
-      <c r="D42" t="n">
-        <v>592.0021932210623</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1872,12 +1616,6 @@
       <c r="B43" t="n">
         <v>226</v>
       </c>
-      <c r="C43" t="n">
-        <v>-173.6563258713912</v>
-      </c>
-      <c r="D43" t="n">
-        <v>603.2723391832176</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1886,12 +1624,6 @@
       <c r="B44" t="n">
         <v>225</v>
       </c>
-      <c r="C44" t="n">
-        <v>-144.4374694214458</v>
-      </c>
-      <c r="D44" t="n">
-        <v>613.9131123142288</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1900,12 +1632,6 @@
       <c r="B45" t="n">
         <v>225</v>
       </c>
-      <c r="C45" t="n">
-        <v>-153.6629634321945</v>
-      </c>
-      <c r="D45" t="n">
-        <v>592.1583897444557</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1914,12 +1640,6 @@
       <c r="B46" t="n">
         <v>224</v>
       </c>
-      <c r="C46" t="n">
-        <v>-182.0023109820127</v>
-      </c>
-      <c r="D46" t="n">
-        <v>626.4629243331676</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1928,12 +1648,6 @@
       <c r="B47" t="n">
         <v>223</v>
       </c>
-      <c r="C47" t="n">
-        <v>-155.3738821796161</v>
-      </c>
-      <c r="D47" t="n">
-        <v>614.9630101034097</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1942,12 +1656,6 @@
       <c r="B48" t="n">
         <v>223</v>
       </c>
-      <c r="C48" t="n">
-        <v>-182.4702311239178</v>
-      </c>
-      <c r="D48" t="n">
-        <v>597.3416447168639</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1956,12 +1664,6 @@
       <c r="B49" t="n">
         <v>220</v>
       </c>
-      <c r="C49" t="n">
-        <v>-193.1688545508984</v>
-      </c>
-      <c r="D49" t="n">
-        <v>628.5686477503874</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1970,12 +1672,6 @@
       <c r="B50" t="n">
         <v>220</v>
       </c>
-      <c r="C50" t="n">
-        <v>-154.6234061949768</v>
-      </c>
-      <c r="D50" t="n">
-        <v>631.5209776892103</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1984,12 +1680,6 @@
       <c r="B51" t="n">
         <v>219</v>
       </c>
-      <c r="C51" t="n">
-        <v>-173.9585248740285</v>
-      </c>
-      <c r="D51" t="n">
-        <v>614.3328307011078</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1998,12 +1688,6 @@
       <c r="B52" t="n">
         <v>218</v>
       </c>
-      <c r="C52" t="n">
-        <v>-167.449276303621</v>
-      </c>
-      <c r="D52" t="n">
-        <v>614.6148685719938</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2012,12 +1696,6 @@
       <c r="B53" t="n">
         <v>218</v>
       </c>
-      <c r="C53" t="n">
-        <v>-186.4384129539426</v>
-      </c>
-      <c r="D53" t="n">
-        <v>623.6376185846042</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2026,12 +1704,6 @@
       <c r="B54" t="n">
         <v>217</v>
       </c>
-      <c r="C54" t="n">
-        <v>-177.5932693180253</v>
-      </c>
-      <c r="D54" t="n">
-        <v>617.5910044252859</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2040,12 +1712,6 @@
       <c r="B55" t="n">
         <v>216</v>
       </c>
-      <c r="C55" t="n">
-        <v>-160.1942411969284</v>
-      </c>
-      <c r="D55" t="n">
-        <v>644.5416318673821</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2054,12 +1720,6 @@
       <c r="B56" t="n">
         <v>215</v>
       </c>
-      <c r="C56" t="n">
-        <v>-171.2661758836055</v>
-      </c>
-      <c r="D56" t="n">
-        <v>598.5694310263375</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2068,12 +1728,6 @@
       <c r="B57" t="n">
         <v>215</v>
       </c>
-      <c r="C57" t="n">
-        <v>-171.6571739055119</v>
-      </c>
-      <c r="D57" t="n">
-        <v>581.3142891246982</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2082,12 +1736,6 @@
       <c r="B58" t="n">
         <v>214</v>
       </c>
-      <c r="C58" t="n">
-        <v>-159.6281211215833</v>
-      </c>
-      <c r="D58" t="n">
-        <v>593.0818336918621</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2096,12 +1744,6 @@
       <c r="B59" t="n">
         <v>213</v>
       </c>
-      <c r="C59" t="n">
-        <v>-186.924363732055</v>
-      </c>
-      <c r="D59" t="n">
-        <v>617.607167466743</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2110,12 +1752,6 @@
       <c r="B60" t="n">
         <v>212</v>
       </c>
-      <c r="C60" t="n">
-        <v>-145.9463412742597</v>
-      </c>
-      <c r="D60" t="n">
-        <v>604.4237628151051</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2124,12 +1760,6 @@
       <c r="B61" t="n">
         <v>211</v>
       </c>
-      <c r="C61" t="n">
-        <v>-192.050153959798</v>
-      </c>
-      <c r="D61" t="n">
-        <v>596.7648319824377</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2138,12 +1768,6 @@
       <c r="B62" t="n">
         <v>210</v>
       </c>
-      <c r="C62" t="n">
-        <v>-175.755487410955</v>
-      </c>
-      <c r="D62" t="n">
-        <v>622.3241580006714</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2152,12 +1776,6 @@
       <c r="B63" t="n">
         <v>210</v>
       </c>
-      <c r="C63" t="n">
-        <v>-181.2555588034299</v>
-      </c>
-      <c r="D63" t="n">
-        <v>571.0556521914307</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2166,12 +1784,6 @@
       <c r="B64" t="n">
         <v>209</v>
       </c>
-      <c r="C64" t="n">
-        <v>-177.4780128048741</v>
-      </c>
-      <c r="D64" t="n">
-        <v>593.7745006049596</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2180,12 +1792,6 @@
       <c r="B65" t="n">
         <v>208</v>
       </c>
-      <c r="C65" t="n">
-        <v>-186.2079025384102</v>
-      </c>
-      <c r="D65" t="n">
-        <v>590.4711025905068</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2194,12 +1800,6 @@
       <c r="B66" t="n">
         <v>207</v>
       </c>
-      <c r="C66" t="n">
-        <v>-186.2160447457654</v>
-      </c>
-      <c r="D66" t="n">
-        <v>590.066700602807</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2208,12 +1808,6 @@
       <c r="B67" t="n">
         <v>207</v>
       </c>
-      <c r="C67" t="n">
-        <v>-152.8105787958874</v>
-      </c>
-      <c r="D67" t="n">
-        <v>595.3574646095049</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2222,12 +1816,6 @@
       <c r="B68" t="n">
         <v>206</v>
       </c>
-      <c r="C68" t="n">
-        <v>-202.705848166788</v>
-      </c>
-      <c r="D68" t="n">
-        <v>590.8273341325585</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2236,12 +1824,6 @@
       <c r="B69" t="n">
         <v>202</v>
       </c>
-      <c r="C69" t="n">
-        <v>-188.5014055084932</v>
-      </c>
-      <c r="D69" t="n">
-        <v>594.3000319769188</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2250,12 +1832,6 @@
       <c r="B70" t="n">
         <v>201</v>
       </c>
-      <c r="C70" t="n">
-        <v>-187.0170144268575</v>
-      </c>
-      <c r="D70" t="n">
-        <v>598.1041937417082</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2264,12 +1840,6 @@
       <c r="B71" t="n">
         <v>200</v>
       </c>
-      <c r="C71" t="n">
-        <v>-174.2887962202338</v>
-      </c>
-      <c r="D71" t="n">
-        <v>607.6909979068258</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2278,12 +1848,6 @@
       <c r="B72" t="n">
         <v>198</v>
       </c>
-      <c r="C72" t="n">
-        <v>-189.3965870098094</v>
-      </c>
-      <c r="D72" t="n">
-        <v>603.8341320280974</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2292,12 +1856,6 @@
       <c r="B73" t="n">
         <v>197</v>
       </c>
-      <c r="C73" t="n">
-        <v>-207.6744510999705</v>
-      </c>
-      <c r="D73" t="n">
-        <v>571.5565944466177</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2306,12 +1864,6 @@
       <c r="B74" t="n">
         <v>197</v>
       </c>
-      <c r="C74" t="n">
-        <v>-201.2090712451327</v>
-      </c>
-      <c r="D74" t="n">
-        <v>576.5408978972998</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2320,12 +1872,6 @@
       <c r="B75" t="n">
         <v>196</v>
       </c>
-      <c r="C75" t="n">
-        <v>-201.1222934407734</v>
-      </c>
-      <c r="D75" t="n">
-        <v>607.6474114534784</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2334,12 +1880,6 @@
       <c r="B76" t="n">
         <v>188</v>
       </c>
-      <c r="C76" t="n">
-        <v>-173.5239205090033</v>
-      </c>
-      <c r="D76" t="n">
-        <v>581.1756905119252</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -2348,12 +1888,6 @@
       <c r="B77" t="n">
         <v>187</v>
       </c>
-      <c r="C77" t="n">
-        <v>-203.8242091919407</v>
-      </c>
-      <c r="D77" t="n">
-        <v>590.7559328594231</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -2362,12 +1896,6 @@
       <c r="B78" t="n">
         <v>186</v>
       </c>
-      <c r="C78" t="n">
-        <v>-184.5657105553014</v>
-      </c>
-      <c r="D78" t="n">
-        <v>586.551371634633</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -2376,12 +1904,6 @@
       <c r="B79" t="n">
         <v>185</v>
       </c>
-      <c r="C79" t="n">
-        <v>-205.553530024584</v>
-      </c>
-      <c r="D79" t="n">
-        <v>560.3320177792416</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -2390,12 +1912,6 @@
       <c r="B80" t="n">
         <v>184</v>
       </c>
-      <c r="C80" t="n">
-        <v>-200.10406194288</v>
-      </c>
-      <c r="D80" t="n">
-        <v>563.225779095568</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -2404,12 +1920,6 @@
       <c r="B81" t="n">
         <v>184</v>
       </c>
-      <c r="C81" t="n">
-        <v>-235.371224444548</v>
-      </c>
-      <c r="D81" t="n">
-        <v>569.9637368916751</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -2418,12 +1928,6 @@
       <c r="B82" t="n">
         <v>183</v>
       </c>
-      <c r="C82" t="n">
-        <v>-201.5278723305055</v>
-      </c>
-      <c r="D82" t="n">
-        <v>593.9709459382697</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -2432,12 +1936,6 @@
       <c r="B83" t="n">
         <v>182</v>
       </c>
-      <c r="C83" t="n">
-        <v>-205.9184762569065</v>
-      </c>
-      <c r="D83" t="n">
-        <v>575.8989138492578</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -2446,12 +1944,6 @@
       <c r="B84" t="n">
         <v>182</v>
       </c>
-      <c r="C84" t="n">
-        <v>-186.5875769077257</v>
-      </c>
-      <c r="D84" t="n">
-        <v>565.8697161797564</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -2459,12 +1951,6 @@
       </c>
       <c r="B85" t="n">
         <v>181</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-223.891425813398</v>
-      </c>
-      <c r="D85" t="n">
-        <v>574.4197220214938</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09JBLHBWJ_po_data.xlsx
+++ b/po_analysis_by_asin/B09JBLHBWJ_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,6 +1059,14 @@
         <v>104</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B78" t="n">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1070,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1250,6 +1258,14 @@
         <v>148</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1261,7 +1277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1286,7 +1302,7 @@
         <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
@@ -1294,7 +1310,7 @@
         <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4">
@@ -1302,7 +1318,7 @@
         <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5">
@@ -1310,7 +1326,7 @@
         <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6">
@@ -1318,7 +1334,7 @@
         <v>44962.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7">
@@ -1326,7 +1342,7 @@
         <v>44969.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8">
@@ -1334,7 +1350,7 @@
         <v>44976.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9">
@@ -1342,7 +1358,7 @@
         <v>44983.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10">
@@ -1350,7 +1366,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11">
@@ -1358,7 +1374,7 @@
         <v>44997.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12">
@@ -1366,7 +1382,7 @@
         <v>45004.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13">
@@ -1374,7 +1390,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14">
@@ -1382,7 +1398,7 @@
         <v>45018.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15">
@@ -1390,7 +1406,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16">
@@ -1398,7 +1414,7 @@
         <v>45032.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17">
@@ -1406,7 +1422,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18">
@@ -1414,7 +1430,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19">
@@ -1422,7 +1438,7 @@
         <v>45053.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20">
@@ -1430,7 +1446,7 @@
         <v>45060.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21">
@@ -1438,7 +1454,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
@@ -1446,7 +1462,7 @@
         <v>45074.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
@@ -1454,7 +1470,7 @@
         <v>45081.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24">
@@ -1462,7 +1478,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25">
@@ -1470,7 +1486,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
@@ -1486,7 +1502,7 @@
         <v>45109.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
@@ -1494,7 +1510,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29">
@@ -1502,7 +1518,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
@@ -1526,7 +1542,7 @@
         <v>45144.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33">
@@ -1598,7 +1614,7 @@
         <v>45207.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42">
@@ -1614,7 +1630,7 @@
         <v>45242.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44">
@@ -1630,7 +1646,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46">
@@ -1638,7 +1654,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47">
@@ -1646,7 +1662,7 @@
         <v>45270.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48">
@@ -1654,7 +1670,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49">
@@ -1662,7 +1678,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50">
@@ -1670,7 +1686,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51">
@@ -1678,7 +1694,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52">
@@ -1686,7 +1702,7 @@
         <v>45319.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53">
@@ -1694,7 +1710,7 @@
         <v>45326.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54">
@@ -1702,7 +1718,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55">
@@ -1710,7 +1726,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56">
@@ -1718,7 +1734,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57">
@@ -1726,7 +1742,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58">
@@ -1734,7 +1750,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59">
@@ -1742,7 +1758,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60">
@@ -1750,7 +1766,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61">
@@ -1758,7 +1774,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62">
@@ -1766,7 +1782,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63">
@@ -1774,7 +1790,7 @@
         <v>45403.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64">
@@ -1782,7 +1798,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65">
@@ -1790,7 +1806,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66">
@@ -1798,7 +1814,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67">
@@ -1806,7 +1822,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68">
@@ -1814,7 +1830,7 @@
         <v>45438.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69">
@@ -1822,7 +1838,7 @@
         <v>45480.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -1830,7 +1846,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71">
@@ -1838,7 +1854,7 @@
         <v>45494.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72">
@@ -1846,7 +1862,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73">
@@ -1854,7 +1870,7 @@
         <v>45522.99999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74">
@@ -1862,7 +1878,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75">
@@ -1870,7 +1886,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B75" t="n">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76">
@@ -1878,7 +1894,7 @@
         <v>45613.99999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77">
@@ -1886,71 +1902,79 @@
         <v>45627.99999999999</v>
       </c>
       <c r="B77" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B79" t="n">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B80" t="n">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B81" t="n">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B85" t="n">
-        <v>181</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B86" t="n">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
